--- a/SEIR_2_wave/data/calibration/icu_data.xlsx
+++ b/SEIR_2_wave/data/calibration/icu_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzana.mucka\Documents\GitHub\corona\SEIR_2_wave\data\calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC048DB7-94F4-4858-A1D2-D6550DF729F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CDCFE0-3B2F-489D-978F-676B21E2D36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F3AC7060-A9B3-4E26-A3CD-19F4D040BFF8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3AC7060-A9B3-4E26-A3CD-19F4D040BFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,13 +414,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B886C8-3948-4735-8EEA-FEE871CF55A1}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -509,7 +509,7 @@
         <v>0.8899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A35" si="1">A3+1</f>
         <v>2</v>
@@ -541,7 +541,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -573,7 +573,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -605,7 +605,7 @@
         <v>0.69100000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -637,7 +637,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -669,7 +669,7 @@
         <v>0.59400000000000008</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -701,7 +701,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -733,7 +733,7 @@
         <v>0.48000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -765,7 +765,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -829,7 +829,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -861,7 +861,7 @@
         <v>0.32199999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -893,7 +893,7 @@
         <v>0.2980000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -925,7 +925,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -957,7 +957,7 @@
         <v>0.24499999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -989,7 +989,7 @@
         <v>0.22399999999999992</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1021,7 +1021,7 @@
         <v>0.20600000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1053,7 +1053,7 @@
         <v>0.17800000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1085,7 +1085,7 @@
         <v>0.1359999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1117,7 +1117,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1149,7 +1149,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1164,11 +1164,11 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="E24">
-        <v>0.10299999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>9.5999999999999974E-2</v>
+        <v>8.1999999999999962E-2</v>
       </c>
       <c r="G24">
         <v>0.55500000000000005</v>
@@ -1181,7 +1181,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1196,11 +1196,11 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="E25">
-        <v>0.10299999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>8.2000000000000073E-2</v>
+        <v>6.800000000000006E-2</v>
       </c>
       <c r="G25">
         <v>0.55500000000000005</v>
@@ -1213,7 +1213,7 @@
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1245,7 +1245,7 @@
         <v>9.1000000000000081E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1277,7 +1277,7 @@
         <v>7.8000000000000069E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1289,14 +1289,14 @@
         <v>8.17</v>
       </c>
       <c r="D28">
-        <v>0.81499999999999995</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="E28">
-        <v>0.11700000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>6.800000000000006E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="G28">
         <v>0.57899999999999996</v>
@@ -1309,7 +1309,7 @@
         <v>5.2000000000000046E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1321,14 +1321,14 @@
         <v>8.17</v>
       </c>
       <c r="D29">
-        <v>0.81499999999999995</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="E29">
-        <v>0.11700000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>6.800000000000006E-2</v>
+        <v>2.7000000000000024E-2</v>
       </c>
       <c r="G29">
         <v>0.57899999999999996</v>
@@ -1341,7 +1341,7 @@
         <v>3.9000000000000035E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1353,27 +1353,27 @@
         <v>8.17</v>
       </c>
       <c r="D30">
-        <v>0.81499999999999995</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E30">
-        <v>0.11700000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>6.800000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.57899999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="H30">
-        <v>0.38200000000000001</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>3.9000000000000035E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.6000000000000023E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1385,27 +1385,27 @@
         <v>8.17</v>
       </c>
       <c r="D31">
-        <v>0.81499999999999995</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E31">
-        <v>0.11700000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>6.800000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.57899999999999996</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="H31">
-        <v>0.38200000000000001</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>3.9000000000000035E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1417,27 +1417,27 @@
         <v>8.17</v>
       </c>
       <c r="D32">
-        <v>0.81499999999999995</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E32">
         <v>0.13100000000000001</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>5.4000000000000048E-2</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.58599999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="H32">
-        <v>0.38200000000000001</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>3.2000000000000028E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1449,27 +1449,27 @@
         <v>8.17</v>
       </c>
       <c r="D33">
-        <v>0.82899999999999996</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E33">
         <v>0.13100000000000001</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.58599999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="H33">
-        <v>0.38200000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>3.2000000000000028E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1481,27 +1481,27 @@
         <v>8.17</v>
       </c>
       <c r="D34">
-        <v>0.84199999999999997</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E34">
         <v>0.13100000000000001</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>2.7000000000000024E-2</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.59199999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="H34">
-        <v>0.38800000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1513,24 +1513,24 @@
         <v>8.17</v>
       </c>
       <c r="D35">
-        <v>0.84199999999999997</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="E35">
         <v>0.13100000000000001</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>2.7000000000000024E-2</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.59199999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="H35">
-        <v>0.39500000000000002</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>1.3000000000000012E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SEIR_2_wave/data/calibration/icu_data.xlsx
+++ b/SEIR_2_wave/data/calibration/icu_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CDCFE0-3B2F-489D-978F-676B21E2D36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DE719A-08C5-4536-AE7F-7CBCCA946D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3AC7060-A9B3-4E26-A3CD-19F4D040BFF8}"/>
   </bookViews>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B886C8-3948-4735-8EEA-FEE871CF55A1}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,721 +454,720 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
+        <f>1+A2</f>
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.18</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="C3">
-        <v>3.58</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="D3">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.3E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F3">
-        <f>1-E3-D3</f>
-        <v>0.86799999999999999</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>5.8000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.1999999999999998E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3" si="0">1-H3-G3</f>
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A35" si="1">A3+1</f>
+        <f t="shared" ref="A4:A52" si="0">1+A3</f>
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.23</v>
+        <v>1.8E-3</v>
       </c>
       <c r="C4">
-        <v>4.17</v>
+        <v>3.5799999999999998E-2</v>
       </c>
       <c r="D4">
-        <v>0.17199999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="E4">
-        <v>3.2000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F4">
         <f>1-E4-D4</f>
-        <v>0.79600000000000004</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="G4">
-        <v>0.108</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="H4">
-        <v>8.1000000000000003E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="I4">
-        <f>1-H4-G4</f>
-        <v>0.81100000000000005</v>
+        <f t="shared" ref="I4" si="1">1-H4-G4</f>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.26</v>
+        <v>2.3E-3</v>
       </c>
       <c r="C5">
-        <v>4.83</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="D5">
-        <v>0.217</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="E5">
-        <v>4.1000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F35" si="2">1-E5-D5</f>
-        <v>0.74199999999999999</v>
+        <f>1-E5-D5</f>
+        <v>0.79600000000000004</v>
       </c>
       <c r="G5">
-        <v>0.14499999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="H5">
-        <v>0.113</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I35" si="3">1-H5-G5</f>
-        <v>0.74199999999999999</v>
+        <f>1-H5-G5</f>
+        <v>0.81100000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.28999999999999998</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C6">
-        <v>5.67</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="D6">
-        <v>0.27300000000000002</v>
+        <v>0.217</v>
       </c>
       <c r="E6">
-        <v>4.4999999999999998E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0.68199999999999994</v>
+        <f t="shared" ref="F6:F36" si="2">1-E6-D6</f>
+        <v>0.74199999999999999</v>
       </c>
       <c r="G6">
-        <v>0.17499999999999999</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H6">
-        <v>0.13400000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
-        <v>0.69100000000000006</v>
+        <f t="shared" ref="I6:I36" si="3">1-H6-G6</f>
+        <v>0.74199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.33</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="C7">
-        <v>6.07</v>
+        <v>5.67E-2</v>
       </c>
       <c r="D7">
-        <v>0.30299999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E7">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.64700000000000002</v>
+        <v>0.68199999999999994</v>
       </c>
       <c r="G7">
-        <v>0.20399999999999999</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="H7">
-        <v>0.152</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>0.64400000000000002</v>
+        <v>0.69100000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.36</v>
+        <v>3.3E-3</v>
       </c>
       <c r="C8">
-        <v>6.48</v>
+        <v>6.0700000000000004E-2</v>
       </c>
       <c r="D8">
-        <v>0.38700000000000001</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="E8">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.55200000000000005</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="G8">
-        <v>0.22800000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="H8">
-        <v>0.17799999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>0.59400000000000008</v>
+        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.38</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="C9">
-        <v>6.82</v>
+        <v>6.480000000000001E-2</v>
       </c>
       <c r="D9">
-        <v>0.44900000000000001</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="E9">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.49000000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="G9">
-        <v>0.26900000000000002</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="H9">
-        <v>0.20599999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>0.52500000000000002</v>
+        <v>0.59400000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4</v>
+        <v>3.8E-3</v>
       </c>
       <c r="C10">
-        <v>7.15</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="D10">
-        <v>0.47299999999999998</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="E10">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.46600000000000008</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="G10">
-        <v>0.28999999999999998</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="H10">
-        <v>0.23</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>0.48000000000000004</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.41</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>7.37</v>
+        <v>7.1500000000000008E-2</v>
       </c>
       <c r="D11">
-        <v>0.503</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="E11">
-        <v>6.7000000000000004E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.43000000000000005</v>
+        <v>0.46600000000000008</v>
       </c>
       <c r="G11">
-        <v>0.31900000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H11">
-        <v>0.24199999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>0.439</v>
+        <v>0.48000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.42</v>
+        <v>4.0999999999999995E-3</v>
       </c>
       <c r="C12">
-        <v>7.48</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="D12">
-        <v>0.51</v>
+        <v>0.503</v>
       </c>
       <c r="E12">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.42300000000000004</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="G12">
-        <v>0.33600000000000002</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="H12">
-        <v>0.253</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>0.41099999999999998</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="C13">
-        <v>7.63</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="D13">
-        <v>0.55800000000000005</v>
+        <v>0.51</v>
       </c>
       <c r="E13">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.375</v>
+        <v>0.42300000000000004</v>
       </c>
       <c r="G13">
-        <v>0.37</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="H13">
-        <v>0.26600000000000001</v>
+        <v>0.253</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>0.36399999999999999</v>
+        <v>0.41099999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.45</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="C14">
-        <v>7.74</v>
+        <v>7.6299999999999993E-2</v>
       </c>
       <c r="D14">
-        <v>0.61799999999999999</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="E14">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.31500000000000006</v>
+        <v>0.375</v>
       </c>
       <c r="G14">
-        <v>0.39600000000000002</v>
+        <v>0.37</v>
       </c>
       <c r="H14">
-        <v>0.28199999999999997</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>0.32199999999999995</v>
+        <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.45</v>
+        <v>4.5000000000000005E-3</v>
       </c>
       <c r="C15">
-        <v>7.84</v>
+        <v>7.7399999999999997E-2</v>
       </c>
       <c r="D15">
-        <v>0.626</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="E15">
-        <v>7.4999999999999997E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.29900000000000004</v>
+        <v>0.31500000000000006</v>
       </c>
       <c r="G15">
-        <v>0.41299999999999998</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="H15">
-        <v>0.28899999999999998</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>0.2980000000000001</v>
+        <v>0.32199999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.46</v>
+        <v>4.5000000000000005E-3</v>
       </c>
       <c r="C16">
-        <v>7.86</v>
+        <v>7.8399999999999997E-2</v>
       </c>
       <c r="D16">
-        <v>0.64200000000000002</v>
+        <v>0.626</v>
       </c>
       <c r="E16">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.28300000000000003</v>
+        <v>0.29900000000000004</v>
       </c>
       <c r="G16">
-        <v>0.42299999999999999</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="H16">
-        <v>0.29199999999999998</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>0.28499999999999998</v>
+        <v>0.2980000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.46</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>7.8600000000000003E-2</v>
       </c>
       <c r="D17">
-        <v>0.65900000000000003</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="E17">
-        <v>9.1999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.249</v>
+        <v>0.28300000000000003</v>
       </c>
       <c r="G17">
-        <v>0.44700000000000001</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="H17">
-        <v>0.308</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>0.24499999999999994</v>
+        <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.46</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="C18">
-        <v>8.0299999999999994</v>
+        <v>0.08</v>
       </c>
       <c r="D18">
-        <v>0.69599999999999995</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="E18">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.21200000000000008</v>
+        <v>0.249</v>
       </c>
       <c r="G18">
-        <v>0.46</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="H18">
-        <v>0.316</v>
+        <v>0.308</v>
       </c>
       <c r="I18">
-        <f>1-H18-G18</f>
-        <v>0.22399999999999992</v>
+        <f t="shared" si="3"/>
+        <v>0.24499999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.47</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="C19">
-        <v>8.06</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="D19">
-        <v>0.71599999999999997</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="E19">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.19200000000000006</v>
+        <v>0.21200000000000008</v>
       </c>
       <c r="G19">
-        <v>0.47299999999999998</v>
+        <v>0.46</v>
       </c>
       <c r="H19">
-        <v>0.32100000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
-        <v>0.20600000000000007</v>
+        <f>1-H19-G19</f>
+        <v>0.22399999999999992</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.47</v>
+        <v>4.6999999999999993E-3</v>
       </c>
       <c r="C20">
-        <v>8.06</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="D20">
-        <v>0.73799999999999999</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="E20">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.17000000000000004</v>
+        <v>0.19200000000000006</v>
       </c>
       <c r="G20">
-        <v>0.501</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="H20">
         <v>0.32100000000000001</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>0.17800000000000005</v>
+        <v>0.20600000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.47</v>
+        <v>4.6999999999999993E-3</v>
       </c>
       <c r="C21">
-        <v>8.1</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="D21">
-        <v>0.76</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="E21">
-        <v>0.10299999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>0.13700000000000001</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="G21">
-        <v>0.53800000000000003</v>
+        <v>0.501</v>
       </c>
       <c r="H21">
-        <v>0.32600000000000001</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>0.1359999999999999</v>
+        <v>0.17800000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.47</v>
+        <v>4.6999999999999993E-3</v>
       </c>
       <c r="C22">
-        <v>8.1300000000000008</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D22">
-        <v>0.77400000000000002</v>
+        <v>0.76</v>
       </c>
       <c r="E22">
         <v>0.10299999999999999</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.123</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="G22">
-        <v>0.54900000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="H22">
-        <v>0.33100000000000002</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>0.1359999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.47</v>
+        <v>4.6999999999999993E-3</v>
       </c>
       <c r="C23">
-        <v>8.17</v>
+        <v>8.1300000000000011E-2</v>
       </c>
       <c r="D23">
-        <v>0.78800000000000003</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="E23">
         <v>0.10299999999999999</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>0.10899999999999999</v>
+        <v>0.123</v>
       </c>
       <c r="G23">
-        <v>0.55500000000000005</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="H23">
-        <v>0.33700000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>0.10799999999999998</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.47</v>
+        <v>4.6999999999999993E-3</v>
       </c>
       <c r="C24">
-        <v>8.17</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D24">
-        <v>0.80100000000000005</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="E24">
-        <v>0.11700000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>8.1999999999999962E-2</v>
+        <v>0.10899999999999999</v>
       </c>
       <c r="G24">
         <v>0.55500000000000005</v>
@@ -1183,24 +1182,24 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.47</v>
+        <v>4.6999999999999993E-3</v>
       </c>
       <c r="C25">
-        <v>8.17</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D25">
-        <v>0.81499999999999995</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="E25">
         <v>0.11700000000000001</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>6.800000000000006E-2</v>
+        <v>8.1999999999999962E-2</v>
       </c>
       <c r="G25">
         <v>0.55500000000000005</v>
@@ -1215,14 +1214,14 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.48</v>
+        <v>4.6999999999999993E-3</v>
       </c>
       <c r="C26">
-        <v>8.17</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D26">
         <v>0.81499999999999995</v>
@@ -1235,26 +1234,26 @@
         <v>6.800000000000006E-2</v>
       </c>
       <c r="G26">
-        <v>0.56599999999999995</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="H26">
-        <v>0.34300000000000003</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>9.1000000000000081E-2</v>
+        <v>0.10799999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.48</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="C27">
-        <v>8.17</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D27">
         <v>0.81499999999999995</v>
@@ -1267,122 +1266,122 @@
         <v>6.800000000000006E-2</v>
       </c>
       <c r="G27">
-        <v>0.57299999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="H27">
-        <v>0.34899999999999998</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>7.8000000000000069E-2</v>
+        <v>9.1000000000000081E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.48</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="C28">
-        <v>8.17</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D28">
-        <v>0.82899999999999996</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="E28">
-        <v>0.13100000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>6.800000000000006E-2</v>
       </c>
       <c r="G28">
-        <v>0.57899999999999996</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="H28">
-        <v>0.36899999999999999</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>5.2000000000000046E-2</v>
+        <v>7.8000000000000069E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.48</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="C29">
-        <v>8.17</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D29">
-        <v>0.84199999999999997</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="E29">
         <v>0.13100000000000001</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>2.7000000000000024E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="G29">
         <v>0.57899999999999996</v>
       </c>
       <c r="H29">
-        <v>0.38200000000000001</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>3.9000000000000035E-2</v>
+        <v>5.2000000000000046E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.48</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="C30">
-        <v>8.17</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D30">
-        <v>0.86899999999999999</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="E30">
         <v>0.13100000000000001</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.7000000000000024E-2</v>
       </c>
       <c r="G30">
-        <v>0.58599999999999997</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H30">
-        <v>0.38800000000000001</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>2.6000000000000023E-2</v>
+        <v>3.9000000000000035E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.48</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="C31">
-        <v>8.17</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D31">
         <v>0.86899999999999999</v>
@@ -1395,26 +1394,26 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.59199999999999997</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="H31">
         <v>0.38800000000000001</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>2.0000000000000018E-2</v>
+        <v>2.6000000000000023E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.48</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="C32">
-        <v>8.17</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D32">
         <v>0.86899999999999999</v>
@@ -1427,26 +1426,26 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.59899999999999998</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="H32">
-        <v>0.39500000000000002</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>6.0000000000000053E-3</v>
+        <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.48</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="C33">
-        <v>8.17</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D33">
         <v>0.86899999999999999</v>
@@ -1462,23 +1461,23 @@
         <v>0.59899999999999998</v>
       </c>
       <c r="H33">
-        <v>0.40100000000000002</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.0000000000000053E-3</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.48</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="C34">
-        <v>8.17</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D34">
         <v>0.86899999999999999</v>
@@ -1503,14 +1502,14 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.48</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="C35">
-        <v>8.17</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D35">
         <v>0.86899999999999999</v>
@@ -1530,6 +1529,550 @@
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C36">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H36">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C37">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:F47" si="4">1-E37-D37</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H37">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ref="I37:I47" si="5">1-H37-G37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C38">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D38">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E38">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H38">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C39">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D39">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E39">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H39">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C40">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D40">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H40">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C41">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D41">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E41">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H41">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C42">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H42">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C43">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H43">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C44">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H44">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C45">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D45">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E45">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H45">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C46">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D46">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E46">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H46">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C47">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E47">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H47">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C48">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D48">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E48">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:F52" si="6">1-E48-D48</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H48">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48:I52" si="7">1-H48-G48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C49">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E49">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H49">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C50">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D50">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E50">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H50">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C51">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E51">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H51">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C52">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="D52">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H52">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>

--- a/SEIR_2_wave/data/calibration/icu_data.xlsx
+++ b/SEIR_2_wave/data/calibration/icu_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DE719A-08C5-4536-AE7F-7CBCCA946D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3544E41-1A98-48F9-B60E-F03C6010F5CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3AC7060-A9B3-4E26-A3CD-19F4D040BFF8}"/>
   </bookViews>
@@ -414,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B886C8-3948-4735-8EEA-FEE871CF55A1}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A48" sqref="A48:I52"/>
     </sheetView>
   </sheetViews>
